--- a/Input/william/addon.xlsx
+++ b/Input/william/addon.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t xml:space="preserve">sheetName</t>
   </si>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">`</t>
   </si>
 </sst>
 </file>
@@ -119,6 +116,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -139,12 +137,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -260,7 +260,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -387,7 +387,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,6 +428,7 @@
       <c r="E2" s="6" t="n">
         <v>784.98</v>
       </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -445,6 +446,7 @@
       <c r="E3" s="6" t="n">
         <v>1800.61073149117</v>
       </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -462,9 +464,7 @@
       <c r="E4" s="6" t="n">
         <v>2060.33</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>26</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -482,6 +482,7 @@
       <c r="E5" s="6" t="n">
         <v>2779.48</v>
       </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -499,6 +500,7 @@
       <c r="E6" s="6" t="n">
         <v>3358.82</v>
       </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -516,8 +518,9 @@
       <c r="E7" s="6" t="n">
         <v>3580.69</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
@@ -530,11 +533,11 @@
       <c r="D8" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>295.98</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="n">
+        <v>1080.96</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -547,11 +550,11 @@
       <c r="D9" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="6" t="n">
-        <v>998.84</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="n">
+        <v>2799.45073149117</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -564,11 +567,11 @@
       <c r="D10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6" t="n">
-        <v>1138.68</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>3199.01</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -581,11 +584,11 @@
       <c r="D11" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="6" t="n">
-        <v>1578.18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="n">
+        <v>4357.66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -598,11 +601,11 @@
       <c r="D12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>2497.11</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>5855.93</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -615,8 +618,8 @@
       <c r="D13" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6" t="n">
-        <v>4794.39</v>
+      <c r="E13" s="0" t="n">
+        <v>8375.08</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,7 +727,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -750,7 +753,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
